--- a/biology/Médecine/Résolution_2532_du_Conseil_de_sécurité_des_Nations_unies/Résolution_2532_du_Conseil_de_sécurité_des_Nations_unies.xlsx
+++ b/biology/Médecine/Résolution_2532_du_Conseil_de_sécurité_des_Nations_unies/Résolution_2532_du_Conseil_de_sécurité_des_Nations_unies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9solution_2532_du_Conseil_de_s%C3%A9curit%C3%A9_des_Nations_unies</t>
+          <t>Résolution_2532_du_Conseil_de_sécurité_des_Nations_unies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Résolution 2532 du Conseil de sécurité de l'ONU vise à mettre un terme immédiat aux hostilités dans le monde pour faire face à la pandémie de la Covid-19. Elle demande également une pause humanitaire d'au moins 90 jours.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9solution_2532_du_Conseil_de_s%C3%A9curit%C3%A9_des_Nations_unies</t>
+          <t>Résolution_2532_du_Conseil_de_sécurité_des_Nations_unies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jugeant que l’ampleur sans précédent de la pandémie de COVID-19 risque de menacer le maintien de la paix et de la sécurité internationale, le Conseil de sécurité a exigé la cessation générale et immédiate des hostilités dans toutes les situations dont il est saisi. 
 Le texte de cette résolution, présenté par la France et la Tunisie au Conseil de sécurité prie en outre le Secrétaire général de donner pour instruction aux opérations de maintien de la paix de fournir un appui aux autorités du pays hôte dans les efforts qu’elles déploient pour contenir la pandémie.  Le but est notamment de faciliter l’accès humanitaire, y compris aux personnes déplacées et aux camps de réfugiés, et de permettre les évacuations médicales. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9solution_2532_du_Conseil_de_s%C3%A9curit%C3%A9_des_Nations_unies</t>
+          <t>Résolution_2532_du_Conseil_de_sécurité_des_Nations_unies</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Texte de la résolution 2532 du Conseil de sécurité de l'ONU
  Portail des relations internationales   Portail de l’Organisation des Nations unies   Portail de la maladie à coronavirus 2019                   </t>
